--- a/data/trans_orig/P6604-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P6604-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>194813</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>174854</v>
+        <v>176883</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>214500</v>
+        <v>214134</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5464997361007827</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4905095190199067</v>
+        <v>0.4962013503428153</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6017265293008097</v>
+        <v>0.6006984484636828</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>138</v>
@@ -765,19 +765,19 @@
         <v>143330</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>129201</v>
+        <v>129191</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>157266</v>
+        <v>156962</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6636798747041285</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5982532014681488</v>
+        <v>0.5982092017617496</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7282061621329268</v>
+        <v>0.7267989349385959</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>325</v>
@@ -786,19 +786,19 @@
         <v>338144</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>315300</v>
+        <v>313788</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>363023</v>
+        <v>362669</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5907080941959099</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5508018223682989</v>
+        <v>0.5481614151075616</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.634170314436869</v>
+        <v>0.6335522876929467</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>94084</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>79315</v>
+        <v>77670</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>111516</v>
+        <v>112494</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2639297635819716</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.222497278150954</v>
+        <v>0.2178840606503737</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3128305082778071</v>
+        <v>0.3155743538645926</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>45</v>
@@ -836,19 +836,19 @@
         <v>46849</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>35599</v>
+        <v>35480</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>60628</v>
+        <v>60369</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2169285194930597</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.164836417258264</v>
+        <v>0.164286744993494</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.280733955882541</v>
+        <v>0.279533555477715</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>137</v>
@@ -857,19 +857,19 @@
         <v>140933</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>121707</v>
+        <v>120873</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>162680</v>
+        <v>159617</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2461976815554039</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.212611091856624</v>
+        <v>0.2111542971747161</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2841878780991231</v>
+        <v>0.2788379014540715</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>44751</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>33368</v>
+        <v>33586</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>57350</v>
+        <v>59039</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.125537715665278</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09360683287682815</v>
+        <v>0.09421737615960316</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1608801662780249</v>
+        <v>0.1656201741401857</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>15</v>
@@ -907,19 +907,19 @@
         <v>13931</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>8106</v>
+        <v>7908</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>23064</v>
+        <v>22051</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06450870926328858</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03753314241600811</v>
+        <v>0.03661695414214036</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1067955453381851</v>
+        <v>0.1021043759465189</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>59</v>
@@ -928,19 +928,19 @@
         <v>58683</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>44362</v>
+        <v>45559</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>74277</v>
+        <v>74982</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1025134028306462</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07749656920423324</v>
+        <v>0.07958836217636975</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1297550690889169</v>
+        <v>0.1309871072694845</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>22826</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15108</v>
+        <v>14286</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34361</v>
+        <v>33821</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06403278465196771</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04238044747009286</v>
+        <v>0.04007665517561326</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09639093984524499</v>
+        <v>0.0948758130516973</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -978,19 +978,19 @@
         <v>11853</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5991</v>
+        <v>6500</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20941</v>
+        <v>20346</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0548828965395232</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02774297912289487</v>
+        <v>0.03009902484728532</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09696510824737505</v>
+        <v>0.09420870614237005</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>33</v>
@@ -999,19 +999,19 @@
         <v>34679</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>23669</v>
+        <v>24150</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>47673</v>
+        <v>48448</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06058082141804008</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04134718055445968</v>
+        <v>0.0421875758937084</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08328138001899264</v>
+        <v>0.08463455021426969</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>161179</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>144187</v>
+        <v>141576</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>177908</v>
+        <v>176062</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5971579468936841</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5342051446024542</v>
+        <v>0.5245320064875457</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6591376901087261</v>
+        <v>0.652297402966684</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>151</v>
@@ -1124,19 +1124,19 @@
         <v>155481</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>142664</v>
+        <v>139417</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>169355</v>
+        <v>168996</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6703141402472401</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6150589232747309</v>
+        <v>0.6010605368469131</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7301298555991345</v>
+        <v>0.7285828242404992</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>304</v>
@@ -1145,19 +1145,19 @@
         <v>316660</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>293492</v>
+        <v>294162</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>336906</v>
+        <v>337108</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6309695055395493</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5848054026478315</v>
+        <v>0.5861407265915741</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6713119370383701</v>
+        <v>0.6717154595007487</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>62016</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>48194</v>
+        <v>49272</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>77389</v>
+        <v>77986</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2297663517176872</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1785558378196298</v>
+        <v>0.1825511857553442</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2867226254152215</v>
+        <v>0.2889333457748542</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>45</v>
@@ -1195,19 +1195,19 @@
         <v>44907</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33746</v>
+        <v>34453</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>55874</v>
+        <v>58863</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1936039217643482</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1454850500031894</v>
+        <v>0.148533660340401</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2408855491255538</v>
+        <v>0.2537719858150949</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>103</v>
@@ -1216,19 +1216,19 @@
         <v>106923</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>88731</v>
+        <v>89234</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>126367</v>
+        <v>126235</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2130526865432965</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.176803004769514</v>
+        <v>0.1778056469827259</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2517960763506377</v>
+        <v>0.2515335395750372</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>35345</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>24469</v>
+        <v>25407</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>47276</v>
+        <v>48679</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1309511624941221</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0906552761098763</v>
+        <v>0.09413306717769118</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.175156297538419</v>
+        <v>0.1803530815620166</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>26</v>
@@ -1266,19 +1266,19 @@
         <v>24846</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>16731</v>
+        <v>16396</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>35855</v>
+        <v>35097</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1071163013144303</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07212947408835198</v>
+        <v>0.07068662608170162</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1545810667161255</v>
+        <v>0.1513100097742835</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>59</v>
@@ -1287,19 +1287,19 @@
         <v>60191</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>47568</v>
+        <v>46904</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>78123</v>
+        <v>75288</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1199350916783757</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09478273610540158</v>
+        <v>0.09346084802673819</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.155665312347731</v>
+        <v>0.1500180258826625</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>11370</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6008</v>
+        <v>5966</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>19534</v>
+        <v>19849</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04212453889450676</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02226042809889837</v>
+        <v>0.02210232624464566</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07237363401497561</v>
+        <v>0.07354005486692224</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -1337,19 +1337,19 @@
         <v>6719</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2974</v>
+        <v>2963</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13378</v>
+        <v>12905</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02896563667398136</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01282375577730577</v>
+        <v>0.01277508339658228</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05767430823895637</v>
+        <v>0.0556364854618237</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>18</v>
@@ -1358,19 +1358,19 @@
         <v>18088</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>11497</v>
+        <v>10939</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>28969</v>
+        <v>27824</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03604271623877839</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02290841666861643</v>
+        <v>0.02179629298905025</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05772294225641534</v>
+        <v>0.05544065595529662</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>70176</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>55152</v>
+        <v>54348</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>86690</v>
+        <v>85009</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1842274985512634</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1447850236510403</v>
+        <v>0.1426746557177292</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2275808318548024</v>
+        <v>0.2231686856673921</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -1483,19 +1483,19 @@
         <v>22257</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15782</v>
+        <v>15850</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>30499</v>
+        <v>29985</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3917368514207406</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.277766115255336</v>
+        <v>0.2789638811923729</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.536807215341072</v>
+        <v>0.5277484754784362</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>91</v>
@@ -1504,19 +1504,19 @@
         <v>92433</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>76903</v>
+        <v>76004</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>112836</v>
+        <v>109752</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2111611620623934</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1756826845927467</v>
+        <v>0.1736305540967537</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.257772241398199</v>
+        <v>0.2507255916922143</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>111865</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>94729</v>
+        <v>94885</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>129406</v>
+        <v>130083</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2936696367167634</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2486837174265943</v>
+        <v>0.2490930949363416</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3397195710799145</v>
+        <v>0.3414969145732735</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>18</v>
@@ -1554,19 +1554,19 @@
         <v>19240</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>12429</v>
+        <v>12842</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>27654</v>
+        <v>27366</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3386305687265582</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2187614463145141</v>
+        <v>0.2260331177626861</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4867247658767889</v>
+        <v>0.4816629741571079</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>128</v>
@@ -1575,19 +1575,19 @@
         <v>131104</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>111730</v>
+        <v>111246</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>152615</v>
+        <v>149667</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2995053380822836</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.255245614698844</v>
+        <v>0.2541384191582796</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.348645251343745</v>
+        <v>0.3419117119742048</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>109506</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>93075</v>
+        <v>92481</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>127013</v>
+        <v>127602</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2874780674955606</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2443413416309574</v>
+        <v>0.2427840346742462</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3334377042712838</v>
+        <v>0.3349827348354315</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -1625,19 +1625,19 @@
         <v>9480</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4660</v>
+        <v>4646</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16533</v>
+        <v>15917</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1668478365674178</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08202664310716606</v>
+        <v>0.08176484129834111</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2909892333065909</v>
+        <v>0.280154080217267</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>114</v>
@@ -1646,19 +1646,19 @@
         <v>118986</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>100649</v>
+        <v>100673</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>140450</v>
+        <v>140420</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2718208741972319</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2299313141305295</v>
+        <v>0.2299863657272299</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3208560774061289</v>
+        <v>0.3207874147197085</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>89373</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>74494</v>
+        <v>72093</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>108509</v>
+        <v>106016</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2346247972364126</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1955629947869318</v>
+        <v>0.1892605263455012</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2848592448464023</v>
+        <v>0.2783165474916203</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -1696,19 +1696,19 @@
         <v>5840</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2062</v>
+        <v>2848</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11479</v>
+        <v>11486</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1027847432852834</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03629559849955298</v>
+        <v>0.05013312610985478</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2020429198135101</v>
+        <v>0.2021556008778071</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>89</v>
@@ -1717,19 +1717,19 @@
         <v>95213</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>77455</v>
+        <v>78513</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>112805</v>
+        <v>113856</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2175126256580911</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1769454206824945</v>
+        <v>0.1793616529497377</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2577005117059331</v>
+        <v>0.2601020686945676</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>172237</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>151407</v>
+        <v>150695</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>195206</v>
+        <v>198730</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2448571130454208</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2152446851327183</v>
+        <v>0.2142330667520343</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2775106339265863</v>
+        <v>0.2825208068020806</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>129</v>
@@ -1842,19 +1842,19 @@
         <v>135763</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>114961</v>
+        <v>118957</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>153805</v>
+        <v>153887</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4455881463901317</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3773144906662555</v>
+        <v>0.3904314683745709</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5048037053259787</v>
+        <v>0.5050747485996344</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>296</v>
@@ -1863,19 +1863,19 @@
         <v>307999</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>279919</v>
+        <v>280313</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>339473</v>
+        <v>339046</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3055248289859589</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2776697439837726</v>
+        <v>0.2780608783127268</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.336746062832088</v>
+        <v>0.3363217547330827</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>175268</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>154163</v>
+        <v>153243</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>198172</v>
+        <v>200130</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2491665194546867</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2191629517950262</v>
+        <v>0.2178556607191491</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.281728070788313</v>
+        <v>0.2845109461366295</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>85</v>
@@ -1913,19 +1913,19 @@
         <v>90496</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>74267</v>
+        <v>74586</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>107068</v>
+        <v>107159</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2970163458940608</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.243753478049546</v>
+        <v>0.2447980775031636</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3514084782554424</v>
+        <v>0.351706306868159</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>254</v>
@@ -1934,19 +1934,19 @@
         <v>265763</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>236653</v>
+        <v>240521</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>293523</v>
+        <v>297887</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2636283574169456</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.234752197004264</v>
+        <v>0.23858916162023</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2911647344613381</v>
+        <v>0.2954941643745757</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>203145</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>179400</v>
+        <v>176318</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>226824</v>
+        <v>226991</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2887980106423644</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2550411646529234</v>
+        <v>0.2506586336626996</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.322460857323162</v>
+        <v>0.3226978461316263</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>51</v>
@@ -1984,19 +1984,19 @@
         <v>52621</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>39935</v>
+        <v>39612</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>67300</v>
+        <v>67214</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1727085263262315</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1310715575087525</v>
+        <v>0.1300109648164072</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2208846722701342</v>
+        <v>0.2206043780012708</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>246</v>
@@ -2005,19 +2005,19 @@
         <v>255767</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>227068</v>
+        <v>227593</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>285019</v>
+        <v>286397</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2537118371652413</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2252435314152296</v>
+        <v>0.2257641155862863</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.282729166385728</v>
+        <v>0.2840963360578177</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>152767</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>133550</v>
+        <v>132285</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>178271</v>
+        <v>176976</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2171783568575281</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1898584857792613</v>
+        <v>0.1880608295962506</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2534359348543829</v>
+        <v>0.2515948946244411</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>23</v>
@@ -2055,19 +2055,19 @@
         <v>25803</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>17192</v>
+        <v>17515</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>37985</v>
+        <v>38364</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08468698138957598</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05642700097773892</v>
+        <v>0.05748723849983618</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.124669859033284</v>
+        <v>0.1259132622528498</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>167</v>
@@ -2076,19 +2076,19 @@
         <v>178570</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>154847</v>
+        <v>152182</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>204862</v>
+        <v>203480</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1771349764318542</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1536026456793011</v>
+        <v>0.1509589480952472</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2032164344275491</v>
+        <v>0.2018456883023886</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>38664</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>28005</v>
+        <v>28094</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>50381</v>
+        <v>49588</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2100337136777183</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1521346706017558</v>
+        <v>0.1526146818989688</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2736858012169305</v>
+        <v>0.2693791732495183</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>51</v>
@@ -2201,19 +2201,19 @@
         <v>56224</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>43796</v>
+        <v>42383</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>71457</v>
+        <v>70505</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2660443973308976</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2072379082763888</v>
+        <v>0.2005520226094089</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3381258703255711</v>
+        <v>0.3336171498141908</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>87</v>
@@ -2222,19 +2222,19 @@
         <v>94888</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>75779</v>
+        <v>77537</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>111293</v>
+        <v>113729</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.239969121815414</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.19164353557058</v>
+        <v>0.1960875914974527</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2814555033900299</v>
+        <v>0.2876168648135348</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>33442</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>24294</v>
+        <v>24204</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>45323</v>
+        <v>45496</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1816667676759772</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.131972663928885</v>
+        <v>0.1314851152279727</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2462114130263414</v>
+        <v>0.2471476240183779</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>41</v>
@@ -2272,19 +2272,19 @@
         <v>44651</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>33732</v>
+        <v>32174</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>59054</v>
+        <v>59139</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2112840150234813</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.15961536362871</v>
+        <v>0.1522430573794662</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.279433362963418</v>
+        <v>0.2798362821182608</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>72</v>
@@ -2293,19 +2293,19 @@
         <v>78093</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>62323</v>
+        <v>62790</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>95402</v>
+        <v>96101</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1974959689896501</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1576119431714935</v>
+        <v>0.1587930054664087</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2412699440415522</v>
+        <v>0.2430373320128383</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>49659</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>38484</v>
+        <v>38278</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>63751</v>
+        <v>61964</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2697645987987745</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2090578587202936</v>
+        <v>0.2079363614021456</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.346319308542343</v>
+        <v>0.3366086131579593</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>51</v>
@@ -2343,19 +2343,19 @@
         <v>55300</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>43338</v>
+        <v>44478</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>70257</v>
+        <v>70532</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2616709736518185</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2050677409151475</v>
+        <v>0.2104652929685131</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3324431718172996</v>
+        <v>0.333747558318934</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>100</v>
@@ -2364,19 +2364,19 @@
         <v>104959</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>87473</v>
+        <v>88093</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>122795</v>
+        <v>123930</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2654388888397979</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2212158736845242</v>
+        <v>0.2227843366937949</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3105449243158979</v>
+        <v>0.3134151434119607</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>62319</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>49181</v>
+        <v>49660</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>77176</v>
+        <v>75647</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3385349198475301</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2671667275454097</v>
+        <v>0.2697696794760238</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.419244375476082</v>
+        <v>0.4109377402155937</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>52</v>
@@ -2414,19 +2414,19 @@
         <v>55158</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>42642</v>
+        <v>41804</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>69099</v>
+        <v>68534</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2610006139938026</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2017744146605236</v>
+        <v>0.1978103908846879</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3269638079195116</v>
+        <v>0.3242900630128973</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>107</v>
@@ -2435,19 +2435,19 @@
         <v>117477</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>98999</v>
+        <v>97635</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>138425</v>
+        <v>136158</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.297096020355138</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.250365390299897</v>
+        <v>0.2469152537338863</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3500723979323673</v>
+        <v>0.3443401436807016</v>
       </c>
     </row>
     <row r="28">
@@ -2539,19 +2539,19 @@
         <v>637069</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>595396</v>
+        <v>592483</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>680331</v>
+        <v>686841</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3362185642429533</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3142254722461408</v>
+        <v>0.3126881395543493</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.359050540878896</v>
+        <v>0.362486261713941</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>491</v>
@@ -2560,19 +2560,19 @@
         <v>513055</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>481592</v>
+        <v>479783</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>544273</v>
+        <v>547403</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5026267812124859</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4718039625783237</v>
+        <v>0.4700308011046605</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5332102459820598</v>
+        <v>0.5362765945574109</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1103</v>
@@ -2581,19 +2581,19 @@
         <v>1150124</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1097221</v>
+        <v>1094798</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1201562</v>
+        <v>1201519</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3944787616975051</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3763337555167481</v>
+        <v>0.3755025727183693</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4121215520362924</v>
+        <v>0.4121068151698234</v>
       </c>
     </row>
     <row r="30">
@@ -2610,19 +2610,19 @@
         <v>476675</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>441434</v>
+        <v>438294</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>517000</v>
+        <v>515732</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2515694113139937</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2329704015600245</v>
+        <v>0.2313133247710307</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2728510815824256</v>
+        <v>0.2721818987201622</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>234</v>
@@ -2631,19 +2631,19 @@
         <v>246142</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>219363</v>
+        <v>218436</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>272109</v>
+        <v>273150</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2411390500482498</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2149039032030391</v>
+        <v>0.2139961931074312</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2665783240819459</v>
+        <v>0.2675982408746951</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>694</v>
@@ -2652,19 +2652,19 @@
         <v>722817</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>678847</v>
+        <v>676354</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>773697</v>
+        <v>770117</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2479176991694197</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2328364079424396</v>
+        <v>0.2319813466928246</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2653689828256716</v>
+        <v>0.2641410096530939</v>
       </c>
     </row>
     <row r="31">
@@ -2681,19 +2681,19 @@
         <v>442407</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>405666</v>
+        <v>404224</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>479860</v>
+        <v>482323</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2334840408416647</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2140938842087886</v>
+        <v>0.213332482298484</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.253250402735928</v>
+        <v>0.2545498621151543</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>152</v>
@@ -2702,19 +2702,19 @@
         <v>156178</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>132874</v>
+        <v>135293</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>179110</v>
+        <v>181468</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1530037882401575</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1301732041259401</v>
+        <v>0.1325430757277471</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1754691941123021</v>
+        <v>0.1777791477818428</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>578</v>
@@ -2723,19 +2723,19 @@
         <v>598585</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>558481</v>
+        <v>555765</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>644064</v>
+        <v>641842</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2053075752010618</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1915523947995143</v>
+        <v>0.1906208338343797</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2209063798772211</v>
+        <v>0.2201442722611206</v>
       </c>
     </row>
     <row r="32">
@@ -2752,19 +2752,19 @@
         <v>338655</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>305017</v>
+        <v>304898</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>376736</v>
+        <v>374466</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1787279836013884</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1609751767099571</v>
+        <v>0.160912332559448</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1988255125423724</v>
+        <v>0.1976278220968501</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>99</v>
@@ -2773,19 +2773,19 @@
         <v>105372</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>86318</v>
+        <v>83803</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>126806</v>
+        <v>126722</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1032303804991068</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.08456338398393218</v>
+        <v>0.08210015323435495</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1242281473265921</v>
+        <v>0.1241462677727238</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>414</v>
@@ -2794,19 +2794,19 @@
         <v>444027</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>404772</v>
+        <v>409396</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>483275</v>
+        <v>483994</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1522959639320134</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1388319862736081</v>
+        <v>0.1404180408544786</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1657574180524476</v>
+        <v>0.1660040777586169</v>
       </c>
     </row>
     <row r="33">
@@ -3139,19 +3139,19 @@
         <v>146258</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>129210</v>
+        <v>128469</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>164084</v>
+        <v>164273</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4830151655948198</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4267139610108587</v>
+        <v>0.4242669174210248</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.541882469289426</v>
+        <v>0.5425084856762522</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>90</v>
@@ -3160,19 +3160,19 @@
         <v>98056</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>84539</v>
+        <v>82576</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>113918</v>
+        <v>112110</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5090824467773327</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.438902680280237</v>
+        <v>0.4287129072050256</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5914323740494848</v>
+        <v>0.5820458151199652</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>225</v>
@@ -3181,19 +3181,19 @@
         <v>244315</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>222280</v>
+        <v>222824</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>267823</v>
+        <v>267979</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4931499113675824</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4486719553844203</v>
+        <v>0.4497710462805625</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.540600776140737</v>
+        <v>0.5409168070970448</v>
       </c>
     </row>
     <row r="5">
@@ -3210,19 +3210,19 @@
         <v>87188</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>70649</v>
+        <v>71659</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>103469</v>
+        <v>102955</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2879369409436616</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2333181334854041</v>
+        <v>0.2366517436946029</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3417044994939468</v>
+        <v>0.3400077205085262</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>56</v>
@@ -3231,19 +3231,19 @@
         <v>62962</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>48522</v>
+        <v>50293</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>77361</v>
+        <v>78234</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3268830642895215</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2519129218701484</v>
+        <v>0.2611058909709538</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.401638985243744</v>
+        <v>0.4061690192317602</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>140</v>
@@ -3252,19 +3252,19 @@
         <v>150150</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>128990</v>
+        <v>129363</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>173272</v>
+        <v>170577</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3030788752398142</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2603671906027699</v>
+        <v>0.2611196274666562</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3497505271952439</v>
+        <v>0.344310318236166</v>
       </c>
     </row>
     <row r="6">
@@ -3281,19 +3281,19 @@
         <v>53117</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>40231</v>
+        <v>40725</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>69080</v>
+        <v>67864</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1754183953291054</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1328606272958393</v>
+        <v>0.1344930004718277</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2281343653060739</v>
+        <v>0.2241193722814471</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>17</v>
@@ -3302,19 +3302,19 @@
         <v>19334</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>11762</v>
+        <v>11797</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>29389</v>
+        <v>30312</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1003762877234203</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06106643676714465</v>
+        <v>0.06124458516604772</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1525792852091458</v>
+        <v>0.1573694311120122</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>67</v>
@@ -3323,19 +3323,19 @@
         <v>72451</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>57787</v>
+        <v>57279</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>90864</v>
+        <v>90962</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1462426375079899</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1166441510620435</v>
+        <v>0.1156180742255237</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1834090796015506</v>
+        <v>0.1836076218159966</v>
       </c>
     </row>
     <row r="7">
@@ -3352,19 +3352,19 @@
         <v>16239</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8937</v>
+        <v>9269</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25898</v>
+        <v>27407</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05362949813241326</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02951416107390399</v>
+        <v>0.03061175475594168</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0855265828409327</v>
+        <v>0.09050976646373729</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -3373,19 +3373,19 @@
         <v>12261</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6267</v>
+        <v>6828</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20753</v>
+        <v>20715</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06365820120972551</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03253681271194942</v>
+        <v>0.03544754934930992</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.107743171982862</v>
+        <v>0.1075455976235693</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>26</v>
@@ -3394,19 +3394,19 @@
         <v>28501</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>19948</v>
+        <v>19204</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>42623</v>
+        <v>39956</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05752857588461343</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04026441739091442</v>
+        <v>0.03876325490706065</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0860351555429595</v>
+        <v>0.08065092709871398</v>
       </c>
     </row>
     <row r="8">
@@ -3498,19 +3498,19 @@
         <v>112257</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>95472</v>
+        <v>96110</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>129565</v>
+        <v>130744</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4391926397399483</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.373525594070665</v>
+        <v>0.3760219751394</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5069107378603557</v>
+        <v>0.5115223749339917</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>81</v>
@@ -3519,19 +3519,19 @@
         <v>89546</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>76503</v>
+        <v>75916</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>103721</v>
+        <v>101569</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5360915324940084</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4580074027704163</v>
+        <v>0.4544914747983403</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6209546577065775</v>
+        <v>0.6080701211597689</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>176</v>
@@ -3540,19 +3540,19 @@
         <v>201803</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>179757</v>
+        <v>180455</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>225061</v>
+        <v>223095</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4774895019018914</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4253253788427072</v>
+        <v>0.42697761163687</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5325209405531324</v>
+        <v>0.52786708758946</v>
       </c>
     </row>
     <row r="10">
@@ -3569,19 +3569,19 @@
         <v>91158</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>76723</v>
+        <v>75106</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>107816</v>
+        <v>107926</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3566445558367586</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3001704806094149</v>
+        <v>0.2938456126060495</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4218184629025709</v>
+        <v>0.4222507516377653</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>52</v>
@@ -3590,19 +3590,19 @@
         <v>57749</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>44893</v>
+        <v>46223</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>70467</v>
+        <v>71497</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.34572795796055</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2687639191522287</v>
+        <v>0.2767285367199122</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4218685339615074</v>
+        <v>0.4280362907059153</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>140</v>
@@ -3611,19 +3611,19 @@
         <v>148907</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>127355</v>
+        <v>130344</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>170076</v>
+        <v>169970</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3523300437483322</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3013353085285475</v>
+        <v>0.3084082166723779</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4024190988557004</v>
+        <v>0.4021681132252334</v>
       </c>
     </row>
     <row r="11">
@@ -3640,19 +3640,19 @@
         <v>45903</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>33984</v>
+        <v>33662</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>61617</v>
+        <v>60587</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1795906236938005</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1329590579653498</v>
+        <v>0.1316999695396957</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2410696244644869</v>
+        <v>0.2370417156047999</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>11</v>
@@ -3661,19 +3661,19 @@
         <v>11835</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5888</v>
+        <v>6366</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>20124</v>
+        <v>20629</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0708519284129195</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03525239748689811</v>
+        <v>0.03810960662686675</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1204806785017271</v>
+        <v>0.1235039902220334</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>52</v>
@@ -3682,19 +3682,19 @@
         <v>57738</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>44056</v>
+        <v>44589</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>76586</v>
+        <v>74557</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1366143759113722</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1042423628192472</v>
+        <v>0.105502602928095</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1812112334276358</v>
+        <v>0.1764096143473592</v>
       </c>
     </row>
     <row r="12">
@@ -3711,19 +3711,19 @@
         <v>6281</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2067</v>
+        <v>2025</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14449</v>
+        <v>14233</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02457218072949262</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.008086696553612804</v>
+        <v>0.007922390154176362</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05653171200724632</v>
+        <v>0.0556831950650466</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -3732,19 +3732,19 @@
         <v>7906</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3877</v>
+        <v>3727</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15405</v>
+        <v>15504</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04732858113252214</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02321239477572617</v>
+        <v>0.02231416566348663</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09222871248441662</v>
+        <v>0.09281967825293198</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>13</v>
@@ -3753,19 +3753,19 @@
         <v>14186</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>7852</v>
+        <v>7929</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>23931</v>
+        <v>24573</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03356607843840417</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0185777681423021</v>
+        <v>0.01876144299505311</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05662443935103251</v>
+        <v>0.05814152529916423</v>
       </c>
     </row>
     <row r="13">
@@ -3857,19 +3857,19 @@
         <v>70328</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>57054</v>
+        <v>57550</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>85477</v>
+        <v>84958</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2515289345185387</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2040524091685786</v>
+        <v>0.2058272085472524</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3057075964117651</v>
+        <v>0.3038519770368697</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>30</v>
@@ -3878,19 +3878,19 @@
         <v>30947</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>22495</v>
+        <v>21904</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>40724</v>
+        <v>40787</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2793343871777677</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2030468321940178</v>
+        <v>0.1977057794334573</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.367579073515185</v>
+        <v>0.3681501722364043</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>100</v>
@@ -3899,19 +3899,19 @@
         <v>101276</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>84087</v>
+        <v>85561</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>119671</v>
+        <v>121497</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2594198175242129</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2153905677912456</v>
+        <v>0.2191652393389346</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3065408698891757</v>
+        <v>0.3112166545501882</v>
       </c>
     </row>
     <row r="15">
@@ -3928,19 +3928,19 @@
         <v>103525</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>88441</v>
+        <v>87734</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>120066</v>
+        <v>119304</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3702566886795147</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3163107172540338</v>
+        <v>0.3137810053177316</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4294143266272609</v>
+        <v>0.4266919376016712</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>43</v>
@@ -3949,19 +3949,19 @@
         <v>44921</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>34351</v>
+        <v>34980</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>55832</v>
+        <v>55935</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.4054659787015044</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3100618492072593</v>
+        <v>0.3157349868999224</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.5039509656795422</v>
+        <v>0.5048792085778114</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>145</v>
@@ -3970,19 +3970,19 @@
         <v>148446</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>129205</v>
+        <v>129279</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>169016</v>
+        <v>167148</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3802486996595681</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3309611283936219</v>
+        <v>0.3311505696526273</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4329391712599737</v>
+        <v>0.4281544241008808</v>
       </c>
     </row>
     <row r="16">
@@ -3999,19 +3999,19 @@
         <v>78197</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>63263</v>
+        <v>63104</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>93472</v>
+        <v>93319</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2796722704480267</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2262600642291736</v>
+        <v>0.2256905617966831</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3343041823006976</v>
+        <v>0.3337536040216312</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -4020,19 +4020,19 @@
         <v>22849</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14671</v>
+        <v>14841</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>33706</v>
+        <v>33482</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2062371419461896</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1324252921283858</v>
+        <v>0.1339553766867176</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3042335306281869</v>
+        <v>0.3022164767975493</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>96</v>
@@ -4041,19 +4041,19 @@
         <v>101046</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>84115</v>
+        <v>84785</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>117629</v>
+        <v>119889</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2588321850656256</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2154618654626785</v>
+        <v>0.2171779979496544</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3013083851122979</v>
+        <v>0.3070993171723285</v>
       </c>
     </row>
     <row r="17">
@@ -4070,19 +4070,19 @@
         <v>27553</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>17461</v>
+        <v>18404</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>38604</v>
+        <v>39833</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09854210635391984</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0624475764594398</v>
+        <v>0.06582313447326933</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1380681793340681</v>
+        <v>0.1424639932444898</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>12</v>
@@ -4094,16 +4094,16 @@
         <v>7054</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>20194</v>
+        <v>20478</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1089624921745382</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0636713877284704</v>
+        <v>0.06366651418833554</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.182271088381331</v>
+        <v>0.1848418617667071</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>37</v>
@@ -4112,19 +4112,19 @@
         <v>39625</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>28852</v>
+        <v>29308</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>53997</v>
+        <v>54308</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1014992977505934</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07390537622548063</v>
+        <v>0.07507220657726274</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1383146024274063</v>
+        <v>0.1391112195781758</v>
       </c>
     </row>
     <row r="18">
@@ -4216,19 +4216,19 @@
         <v>106983</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>88502</v>
+        <v>87170</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>126584</v>
+        <v>126396</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2540728674533939</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2101803997588973</v>
+        <v>0.2070191638898882</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.300621407634914</v>
+        <v>0.3001755057687247</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>90</v>
@@ -4237,19 +4237,19 @@
         <v>95631</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>79118</v>
+        <v>79460</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>111581</v>
+        <v>113903</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3213091002405495</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2658270099535937</v>
+        <v>0.2669779149337853</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.37489884713512</v>
+        <v>0.3827009079705613</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>185</v>
@@ -4258,19 +4258,19 @@
         <v>202614</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>177957</v>
+        <v>180656</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>227083</v>
+        <v>230823</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2819167446540354</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2476079809973346</v>
+        <v>0.2513640811568721</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3159628181486168</v>
+        <v>0.3211658309268296</v>
       </c>
     </row>
     <row r="20">
@@ -4287,19 +4287,19 @@
         <v>149488</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>127649</v>
+        <v>131574</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>169157</v>
+        <v>171203</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3550159191628892</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3031511312686667</v>
+        <v>0.3124723827829979</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.401727168209926</v>
+        <v>0.4065867856332593</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>100</v>
@@ -4308,19 +4308,19 @@
         <v>105929</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>89915</v>
+        <v>89708</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>125162</v>
+        <v>124626</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3559082017791919</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.302105393777463</v>
+        <v>0.301410382135419</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4205293622024444</v>
+        <v>0.4187296950539003</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>239</v>
@@ -4329,19 +4329,19 @@
         <v>255417</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>231312</v>
+        <v>229267</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>281379</v>
+        <v>283348</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3553854313524738</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3218469380912681</v>
+        <v>0.319000479419052</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3915097311042392</v>
+        <v>0.3942484106639846</v>
       </c>
     </row>
     <row r="21">
@@ -4358,19 +4358,19 @@
         <v>104276</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>86737</v>
+        <v>89001</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>124087</v>
+        <v>122173</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2476417816444947</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2059906581880357</v>
+        <v>0.2113672676016164</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.294691850014856</v>
+        <v>0.2901455847451146</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>61</v>
@@ -4379,19 +4379,19 @@
         <v>66068</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>53264</v>
+        <v>50985</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>82697</v>
+        <v>82484</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.221981535996139</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1789621747689718</v>
+        <v>0.1713027748550823</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2778514551489382</v>
+        <v>0.2771369353314329</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>163</v>
@@ -4400,19 +4400,19 @@
         <v>170344</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>149217</v>
+        <v>146497</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>195397</v>
+        <v>196945</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2370153574807126</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2076203816809567</v>
+        <v>0.2038346954667403</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2718750540510527</v>
+        <v>0.2740290120690561</v>
       </c>
     </row>
     <row r="22">
@@ -4429,19 +4429,19 @@
         <v>60327</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>47073</v>
+        <v>46944</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>76953</v>
+        <v>76348</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1432694317392222</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1117929861031586</v>
+        <v>0.1114863821091598</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1827543499724659</v>
+        <v>0.1813164381336711</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>29</v>
@@ -4450,19 +4450,19 @@
         <v>30001</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>19926</v>
+        <v>20822</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>41701</v>
+        <v>42478</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1008011619841196</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06695016711048113</v>
+        <v>0.06995867592401507</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1401122413002725</v>
+        <v>0.1427216238746626</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>89</v>
@@ -4471,19 +4471,19 @@
         <v>90328</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>75189</v>
+        <v>73581</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>109579</v>
+        <v>108701</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1256824665127783</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1046176416381194</v>
+        <v>0.1023807811390933</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1524682618201043</v>
+        <v>0.1512465362856426</v>
       </c>
     </row>
     <row r="23">
@@ -4575,19 +4575,19 @@
         <v>14499</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8392</v>
+        <v>8486</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>22660</v>
+        <v>22476</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.09483179457912046</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05488981868398136</v>
+        <v>0.05550391627768755</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1482152429422877</v>
+        <v>0.147010979818592</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>31</v>
@@ -4596,19 +4596,19 @@
         <v>32967</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>23734</v>
+        <v>23420</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>43802</v>
+        <v>44629</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1897086976376804</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1365805175425921</v>
+        <v>0.1347691736418449</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2520631106371427</v>
+        <v>0.2568213630911412</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>46</v>
@@ -4617,19 +4617,19 @@
         <v>47465</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>35603</v>
+        <v>36311</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>61087</v>
+        <v>61742</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.145303439898718</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1089891259306165</v>
+        <v>0.1111574043175162</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1870021516185822</v>
+        <v>0.1890086584102288</v>
       </c>
     </row>
     <row r="25">
@@ -4646,19 +4646,19 @@
         <v>29276</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>20296</v>
+        <v>20048</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>40451</v>
+        <v>38519</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.191486060157698</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1327510009705162</v>
+        <v>0.1311317787625258</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2645808784796396</v>
+        <v>0.251940420773022</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>61</v>
@@ -4667,19 +4667,19 @@
         <v>65028</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>52375</v>
+        <v>52581</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>78722</v>
+        <v>78819</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3742058624095013</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3013939025374286</v>
+        <v>0.3025821212004137</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4530119842603257</v>
+        <v>0.4535693762561891</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>90</v>
@@ -4688,19 +4688,19 @@
         <v>94304</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>79008</v>
+        <v>79305</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>111899</v>
+        <v>111962</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2886874733027699</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.241865075789059</v>
+        <v>0.2427717129851909</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3425508726670972</v>
+        <v>0.3427442619435517</v>
       </c>
     </row>
     <row r="26">
@@ -4717,19 +4717,19 @@
         <v>59903</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>48449</v>
+        <v>47799</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>73115</v>
+        <v>72770</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3918107688237635</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.316894403113082</v>
+        <v>0.3126393970998779</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4782237457093598</v>
+        <v>0.4759694208657844</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>45</v>
@@ -4738,19 +4738,19 @@
         <v>51287</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>39394</v>
+        <v>39178</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>65352</v>
+        <v>65576</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2951335674399236</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2266947843085067</v>
+        <v>0.2254528366892736</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3760735448810257</v>
+        <v>0.3773626534723812</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>101</v>
@@ -4759,19 +4759,19 @@
         <v>111190</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>93921</v>
+        <v>93694</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>130214</v>
+        <v>128239</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3403814191987576</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2875150648032095</v>
+        <v>0.2868218186380273</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3986184713365484</v>
+        <v>0.3925725273514636</v>
       </c>
     </row>
     <row r="27">
@@ -4788,19 +4788,19 @@
         <v>49210</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>37305</v>
+        <v>38300</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>61623</v>
+        <v>62676</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.321871376439418</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2440013744398358</v>
+        <v>0.2505109946856769</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.403061765117611</v>
+        <v>0.4099488441077525</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>21</v>
@@ -4809,19 +4809,19 @@
         <v>24494</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>15384</v>
+        <v>15508</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>35394</v>
+        <v>34990</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1409518725128947</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.08852981867323451</v>
+        <v>0.08924139199165093</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2036747640705887</v>
+        <v>0.2013539925195442</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>65</v>
@@ -4830,19 +4830,19 @@
         <v>73704</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>57602</v>
+        <v>59091</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>89289</v>
+        <v>90219</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2256276675997545</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1763350048740398</v>
+        <v>0.1808943244214319</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2733373917122423</v>
+        <v>0.2761828189082218</v>
       </c>
     </row>
     <row r="28">
@@ -4934,19 +4934,19 @@
         <v>450325</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>413375</v>
+        <v>416720</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>486591</v>
+        <v>490866</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3189350743375932</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2927652170136602</v>
+        <v>0.295134764234791</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3446198329936314</v>
+        <v>0.3476468377332491</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>322</v>
@@ -4955,19 +4955,19 @@
         <v>347148</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>315850</v>
+        <v>317906</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>376410</v>
+        <v>380998</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3685832614986785</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3353535000751048</v>
+        <v>0.3375358650755296</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3996529085057147</v>
+        <v>0.4045240469854339</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>732</v>
@@ -4976,19 +4976,19 @@
         <v>797473</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>750394</v>
+        <v>749868</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>844476</v>
+        <v>843335</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.338801080845753</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3188000596355132</v>
+        <v>0.3185763672947129</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.358770180867833</v>
+        <v>0.3582850805482495</v>
       </c>
     </row>
     <row r="30">
@@ -5005,19 +5005,19 @@
         <v>460635</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>425779</v>
+        <v>426558</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>499703</v>
+        <v>498262</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.32623631366358</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3015506036700912</v>
+        <v>0.3021020685003087</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3539060226507941</v>
+        <v>0.3528853262355258</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>312</v>
@@ -5026,19 +5026,19 @@
         <v>336589</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>306226</v>
+        <v>305455</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>366307</v>
+        <v>369617</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3573723863582318</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3251345118545295</v>
+        <v>0.3243166025910513</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3889254347211149</v>
+        <v>0.3924404132439466</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>754</v>
@@ -5047,19 +5047,19 @@
         <v>797223</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>752345</v>
+        <v>748354</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>845255</v>
+        <v>847682</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3386949643849766</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.319628822622814</v>
+        <v>0.3179331629027987</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3591010130733683</v>
+        <v>0.3601318477412287</v>
       </c>
     </row>
     <row r="31">
@@ -5076,19 +5076,19 @@
         <v>341396</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>311763</v>
+        <v>309785</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>373791</v>
+        <v>376134</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2417878058191856</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2208004225169233</v>
+        <v>0.2194000771586247</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2647309813996259</v>
+        <v>0.2663901810365706</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>154</v>
@@ -5097,19 +5097,19 @@
         <v>171373</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>144824</v>
+        <v>144850</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>195258</v>
+        <v>195392</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1819545054499386</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1537665368826097</v>
+        <v>0.1537938835118202</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2073144841168136</v>
+        <v>0.2074568382192254</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>479</v>
@@ -5118,19 +5118,19 @@
         <v>512769</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>471929</v>
+        <v>471190</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>555920</v>
+        <v>555924</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2178463730598479</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2004956935633347</v>
+        <v>0.2001819966341724</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2361789056463564</v>
+        <v>0.2361804829185941</v>
       </c>
     </row>
     <row r="32">
@@ -5147,19 +5147,19 @@
         <v>159610</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>134226</v>
+        <v>137076</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>182640</v>
+        <v>188530</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1130408061796412</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09506296996927964</v>
+        <v>0.09708153180411855</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1293517510299054</v>
+        <v>0.1335230520424364</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>82</v>
@@ -5168,19 +5168,19 @@
         <v>86734</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>70169</v>
+        <v>68606</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>107490</v>
+        <v>105084</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.09208984669315097</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.07450163821720973</v>
+        <v>0.07284182630467484</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1141268279118861</v>
+        <v>0.1115724980095523</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>230</v>
@@ -5189,19 +5189,19 @@
         <v>246344</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>214807</v>
+        <v>217913</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>281643</v>
+        <v>281902</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1046575817094225</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.09125927129093586</v>
+        <v>0.09257879057131829</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1196543043872864</v>
+        <v>0.1197642288069459</v>
       </c>
     </row>
     <row r="33">
@@ -5534,19 +5534,19 @@
         <v>148778</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>132138</v>
+        <v>131175</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>166366</v>
+        <v>166774</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5407530548407017</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4802718937706414</v>
+        <v>0.4767713949991877</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6046766018442902</v>
+        <v>0.6061592992166668</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>108</v>
@@ -5555,19 +5555,19 @@
         <v>111007</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>96380</v>
+        <v>95940</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>125922</v>
+        <v>126308</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5183021010295523</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.450009605276276</v>
+        <v>0.4479515470097077</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5879408599071431</v>
+        <v>0.5897443062487662</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>244</v>
@@ -5576,19 +5576,19 @@
         <v>259785</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>236223</v>
+        <v>234086</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>281421</v>
+        <v>281806</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5309260396245851</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4827714302097388</v>
+        <v>0.4784032739357577</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5751424105922386</v>
+        <v>0.5759297759057885</v>
       </c>
     </row>
     <row r="5">
@@ -5605,19 +5605,19 @@
         <v>84692</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>69080</v>
+        <v>70461</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>100775</v>
+        <v>103939</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3078230316855932</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2510802271321468</v>
+        <v>0.256100406659471</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3662777318767072</v>
+        <v>0.3777776376012763</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>64</v>
@@ -5626,19 +5626,19 @@
         <v>64587</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>51927</v>
+        <v>52212</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>78176</v>
+        <v>79479</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3015645485998628</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2424507781554174</v>
+        <v>0.2437810537960487</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.365009577962404</v>
+        <v>0.3710931464208609</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>141</v>
@@ -5647,19 +5647,19 @@
         <v>149279</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>130021</v>
+        <v>129259</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>171167</v>
+        <v>171682</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3050836287617522</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2657246519605242</v>
+        <v>0.2641687090391203</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3498149929158557</v>
+        <v>0.3508678219942694</v>
       </c>
     </row>
     <row r="6">
@@ -5676,19 +5676,19 @@
         <v>27436</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17807</v>
+        <v>17763</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>38924</v>
+        <v>37944</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09971944393612883</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06472269839995375</v>
+        <v>0.06456222584555067</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1414743625319272</v>
+        <v>0.1379103421411124</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>28</v>
@@ -5697,19 +5697,19 @@
         <v>28669</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>19540</v>
+        <v>19398</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>38473</v>
+        <v>39698</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1338593285648958</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09123225468522367</v>
+        <v>0.09057046711159726</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1796366162653655</v>
+        <v>0.1853520778630737</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>53</v>
@@ -5718,19 +5718,19 @@
         <v>56105</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>43592</v>
+        <v>42452</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>71387</v>
+        <v>70604</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1146628253419001</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08909001975490093</v>
+        <v>0.0867601029187921</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1458938546354431</v>
+        <v>0.1442942555871204</v>
       </c>
     </row>
     <row r="7">
@@ -5747,19 +5747,19 @@
         <v>14226</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8149</v>
+        <v>7366</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24007</v>
+        <v>23676</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0517044695375763</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02961714690932704</v>
+        <v>0.02677411723738265</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08725502022010209</v>
+        <v>0.08605421818762254</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -5768,19 +5768,19 @@
         <v>9911</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4195</v>
+        <v>4804</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18473</v>
+        <v>17631</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04627402180568917</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01958522772802781</v>
+        <v>0.02243045390521826</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08625032387018088</v>
+        <v>0.08231981226249578</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -5789,19 +5789,19 @@
         <v>24136</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15687</v>
+        <v>15391</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>35673</v>
+        <v>35346</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04932750627176266</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03205890442263103</v>
+        <v>0.03145557806726069</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07290431660148218</v>
+        <v>0.07223620292208208</v>
       </c>
     </row>
     <row r="8">
@@ -5893,19 +5893,19 @@
         <v>107189</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>91141</v>
+        <v>89079</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>122435</v>
+        <v>121088</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4439401294066641</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3774766622802072</v>
+        <v>0.3689336526096144</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5070858240886367</v>
+        <v>0.501505045056574</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>104</v>
@@ -5914,19 +5914,19 @@
         <v>108464</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>95336</v>
+        <v>95737</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>122517</v>
+        <v>122849</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5733488928095214</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5039552786888408</v>
+        <v>0.5060717868523976</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6476340415776739</v>
+        <v>0.6493886918724805</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>203</v>
@@ -5935,19 +5935,19 @@
         <v>215653</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>193772</v>
+        <v>193514</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>235819</v>
+        <v>236092</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5007900815785223</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4499787236023958</v>
+        <v>0.4493792911785541</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5476206222148302</v>
+        <v>0.548254264801989</v>
       </c>
     </row>
     <row r="10">
@@ -5964,19 +5964,19 @@
         <v>80581</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>65383</v>
+        <v>64790</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>96566</v>
+        <v>96612</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3337374648595354</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2707960220280486</v>
+        <v>0.2683367450318901</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3999450033680567</v>
+        <v>0.4001356500687019</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>50</v>
@@ -5985,19 +5985,19 @@
         <v>51768</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>40867</v>
+        <v>39383</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>65292</v>
+        <v>65220</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2736496158618768</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2160247573287618</v>
+        <v>0.2081796304611044</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3451396320884833</v>
+        <v>0.3447591937322276</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>123</v>
@@ -6006,19 +6006,19 @@
         <v>132349</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>112866</v>
+        <v>112557</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>152555</v>
+        <v>152261</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3073405559346541</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2620988445228567</v>
+        <v>0.2613808231594132</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3542632211405495</v>
+        <v>0.3535806116254552</v>
       </c>
     </row>
     <row r="11">
@@ -6035,19 +6035,19 @@
         <v>39121</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>28012</v>
+        <v>28673</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>53075</v>
+        <v>53763</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1620246591753579</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1160152427290078</v>
+        <v>0.1187525121395181</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2198199185482022</v>
+        <v>0.2226677834730979</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>22</v>
@@ -6056,19 +6056,19 @@
         <v>23087</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>15298</v>
+        <v>14560</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>32440</v>
+        <v>32884</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1220390017368373</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08086830179005994</v>
+        <v>0.07696381711710201</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1714806594163977</v>
+        <v>0.1738289675495852</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>57</v>
@@ -6077,19 +6077,19 @@
         <v>62208</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>49434</v>
+        <v>48223</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>78808</v>
+        <v>79220</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1444587490069433</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1147967101995978</v>
+        <v>0.111984300894729</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1830081357881626</v>
+        <v>0.1839655997697458</v>
       </c>
     </row>
     <row r="12">
@@ -6106,19 +6106,19 @@
         <v>14559</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8395</v>
+        <v>8137</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>24776</v>
+        <v>23305</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06029774655844262</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03476730874120396</v>
+        <v>0.03370001452864588</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1026131097407652</v>
+        <v>0.09652120094191624</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -6127,19 +6127,19 @@
         <v>5857</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2807</v>
+        <v>2522</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12350</v>
+        <v>11483</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03096248959176456</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01483682437178037</v>
+        <v>0.01332952802388579</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06528341230687626</v>
+        <v>0.06069940903193323</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>20</v>
@@ -6148,19 +6148,19 @@
         <v>20416</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>13263</v>
+        <v>12388</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>30505</v>
+        <v>30449</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0474106134798802</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03079837494986447</v>
+        <v>0.02876822627621023</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07083896224484415</v>
+        <v>0.07070786575834594</v>
       </c>
     </row>
     <row r="13">
@@ -6252,19 +6252,19 @@
         <v>41226</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>30845</v>
+        <v>30496</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>53753</v>
+        <v>54103</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1919841102910136</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1436403927707092</v>
+        <v>0.1420169167927699</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2503190238872788</v>
+        <v>0.2519510146488815</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>21</v>
@@ -6273,19 +6273,19 @@
         <v>21001</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14373</v>
+        <v>13990</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>28849</v>
+        <v>28475</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3225093447965113</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2207187977541432</v>
+        <v>0.2148417148024168</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4430283354694728</v>
+        <v>0.4372856531843231</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>60</v>
@@ -6294,19 +6294,19 @@
         <v>62227</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>48332</v>
+        <v>48648</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>76556</v>
+        <v>77827</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2223554635242035</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1727040186748211</v>
+        <v>0.1738354537366633</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2735566912546337</v>
+        <v>0.2780994532258923</v>
       </c>
     </row>
     <row r="15">
@@ -6323,19 +6323,19 @@
         <v>69407</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>56069</v>
+        <v>56402</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>84064</v>
+        <v>84263</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3232199572807529</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2611083300248702</v>
+        <v>0.2626558181944559</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3914744803602836</v>
+        <v>0.3924024093887065</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>19</v>
@@ -6344,19 +6344,19 @@
         <v>19651</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>12295</v>
+        <v>12923</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>27762</v>
+        <v>27476</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3017735143437189</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1888110930257411</v>
+        <v>0.1984543216816727</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4263309501739809</v>
+        <v>0.4219427345385843</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>83</v>
@@ -6365,19 +6365,19 @@
         <v>89058</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>74597</v>
+        <v>72855</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>105326</v>
+        <v>105565</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3182296770755205</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2665572745318412</v>
+        <v>0.260333933148683</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3763603398018525</v>
+        <v>0.3772175200301084</v>
       </c>
     </row>
     <row r="16">
@@ -6394,19 +6394,19 @@
         <v>76668</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>62963</v>
+        <v>62624</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>91501</v>
+        <v>89932</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3570337310260953</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2932119790242338</v>
+        <v>0.2916340343466928</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4261097257930739</v>
+        <v>0.4188030922019694</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -6415,19 +6415,19 @@
         <v>19151</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12612</v>
+        <v>12591</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27595</v>
+        <v>26706</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2940958533956349</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1936779672063403</v>
+        <v>0.193357144188608</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.423773022019823</v>
+        <v>0.4101113179150565</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>92</v>
@@ -6436,19 +6436,19 @@
         <v>95819</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>79528</v>
+        <v>79700</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>111601</v>
+        <v>111824</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3423889880344136</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2841781632323132</v>
+        <v>0.2847929230760443</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3987828241615927</v>
+        <v>0.3995810069609737</v>
       </c>
     </row>
     <row r="17">
@@ -6465,19 +6465,19 @@
         <v>27435</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>18788</v>
+        <v>18097</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>39241</v>
+        <v>37797</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1277622014021381</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08749203276048796</v>
+        <v>0.08427734990779077</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1827420269563093</v>
+        <v>0.1760174439120452</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -6486,19 +6486,19 @@
         <v>5315</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1878</v>
+        <v>1914</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11143</v>
+        <v>11917</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08162128746413495</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02883646283199803</v>
+        <v>0.02939267662738627</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1711159939886767</v>
+        <v>0.1830101990335151</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>31</v>
@@ -6507,19 +6507,19 @@
         <v>32750</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>23408</v>
+        <v>22306</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>45236</v>
+        <v>45014</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1170258713658624</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08364517220334691</v>
+        <v>0.07970621961661103</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1616409738066428</v>
+        <v>0.1608485898328152</v>
       </c>
     </row>
     <row r="18">
@@ -6611,19 +6611,19 @@
         <v>112997</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>93558</v>
+        <v>94670</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>133040</v>
+        <v>133012</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2346842885480622</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1943113732916397</v>
+        <v>0.1966207241870917</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2763107127545786</v>
+        <v>0.2762526382578726</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>114</v>
@@ -6632,19 +6632,19 @@
         <v>115837</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>98341</v>
+        <v>97079</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>133436</v>
+        <v>133300</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3182432422083576</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2701765906014677</v>
+        <v>0.2667079782436851</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3665952694618622</v>
+        <v>0.3662210587691868</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>221</v>
@@ -6653,19 +6653,19 @@
         <v>228834</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>205208</v>
+        <v>203141</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>256455</v>
+        <v>255081</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2706575013705452</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2427131206060177</v>
+        <v>0.240268453358752</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3033267266832335</v>
+        <v>0.3017014552259468</v>
       </c>
     </row>
     <row r="20">
@@ -6682,19 +6682,19 @@
         <v>172707</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>152797</v>
+        <v>150415</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>195160</v>
+        <v>193356</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3586952784070026</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3173448610401728</v>
+        <v>0.312395806297571</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4053282551684915</v>
+        <v>0.4015805744176406</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>115</v>
@@ -6703,19 +6703,19 @@
         <v>113007</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>96178</v>
+        <v>95948</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>131143</v>
+        <v>132204</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3104699737734681</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2642330312477803</v>
+        <v>0.2636026129034638</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3602946044970132</v>
+        <v>0.363209138110906</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>280</v>
@@ -6724,19 +6724,19 @@
         <v>285714</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>258314</v>
+        <v>259825</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>313898</v>
+        <v>314732</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3379336595616539</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3055257586657714</v>
+        <v>0.3073122123442406</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3712682241596634</v>
+        <v>0.3722545432488888</v>
       </c>
     </row>
     <row r="21">
@@ -6753,19 +6753,19 @@
         <v>114655</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>95554</v>
+        <v>95455</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>133044</v>
+        <v>134042</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2381276337864774</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1984565129105477</v>
+        <v>0.1982498301494477</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2763186037248378</v>
+        <v>0.2783921719129843</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>78</v>
@@ -6774,19 +6774,19 @@
         <v>79923</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>63807</v>
+        <v>64828</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>97435</v>
+        <v>96900</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.219576590715131</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1753008293537541</v>
+        <v>0.1781059691011736</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2676862868449291</v>
+        <v>0.2662170990162544</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>190</v>
@@ -6795,19 +6795,19 @@
         <v>194579</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>169653</v>
+        <v>172397</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>220696</v>
+        <v>220805</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2301411692455543</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2006598758181555</v>
+        <v>0.2039057187857966</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2610317963977591</v>
+        <v>0.2611605182922421</v>
       </c>
     </row>
     <row r="22">
@@ -6824,19 +6824,19 @@
         <v>81127</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>66105</v>
+        <v>63659</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>99405</v>
+        <v>98056</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1684927992584578</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1372926772712897</v>
+        <v>0.1322143302056329</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2064551797572719</v>
+        <v>0.203651717517523</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>52</v>
@@ -6845,19 +6845,19 @@
         <v>55221</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>43027</v>
+        <v>42077</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>71143</v>
+        <v>69060</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1517101933030433</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1182091428169685</v>
+        <v>0.115600989177623</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1954530492245126</v>
+        <v>0.1897327144462202</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>125</v>
@@ -6866,19 +6866,19 @@
         <v>136348</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>113976</v>
+        <v>113844</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>157086</v>
+        <v>157930</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1612676698222467</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1348067187965227</v>
+        <v>0.1346506171367065</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1857966085684857</v>
+        <v>0.1867939592113735</v>
       </c>
     </row>
     <row r="23">
@@ -6970,19 +6970,19 @@
         <v>28046</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>18569</v>
+        <v>18337</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>39062</v>
+        <v>39316</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1453005807448786</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09620297812025336</v>
+        <v>0.09499700060717475</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2023711144796898</v>
+        <v>0.2036875700739362</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>35</v>
@@ -6991,19 +6991,19 @@
         <v>35724</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>26040</v>
+        <v>26123</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>47338</v>
+        <v>48475</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.181690339607598</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.13243508095836</v>
+        <v>0.1328584325333015</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2407561273848401</v>
+        <v>0.2465375795262908</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>61</v>
@@ -7012,19 +7012,19 @@
         <v>63770</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>49332</v>
+        <v>51267</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>79681</v>
+        <v>80380</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1636635835326988</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1266091951423849</v>
+        <v>0.1315749643292546</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2044985036744479</v>
+        <v>0.2062905378974378</v>
       </c>
     </row>
     <row r="25">
@@ -7041,19 +7041,19 @@
         <v>50350</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>38976</v>
+        <v>39339</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>64571</v>
+        <v>64410</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2608532539047968</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2019242976281513</v>
+        <v>0.2038070598184249</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3345290762638904</v>
+        <v>0.3336917118852956</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>65</v>
@@ -7062,19 +7062,19 @@
         <v>67003</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>53658</v>
+        <v>54731</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>79876</v>
+        <v>81577</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.34077117928819</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2728993553596996</v>
+        <v>0.2783574498878112</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4062402553008937</v>
+        <v>0.4148934126500629</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>110</v>
@@ -7083,19 +7083,19 @@
         <v>117353</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>100481</v>
+        <v>100104</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>137492</v>
+        <v>138346</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3011814432766566</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2578808210462885</v>
+        <v>0.2569119141390112</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3528665583311172</v>
+        <v>0.3550578926264199</v>
       </c>
     </row>
     <row r="26">
@@ -7112,19 +7112,19 @@
         <v>63161</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>50185</v>
+        <v>50104</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>75570</v>
+        <v>75740</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3272199683373453</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2599959950098094</v>
+        <v>0.2595788701400978</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3915078631697171</v>
+        <v>0.3923914260799153</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>59</v>
@@ -7133,19 +7133,19 @@
         <v>59712</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>47038</v>
+        <v>48555</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>72388</v>
+        <v>73662</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.303688361627116</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2392292284044403</v>
+        <v>0.2469436620948398</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3681563401098581</v>
+        <v>0.3746373516868497</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>118</v>
@@ -7154,19 +7154,19 @@
         <v>122872</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>104735</v>
+        <v>105248</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>139389</v>
+        <v>143354</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3153454472323286</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2687979802740735</v>
+        <v>0.2701127707232107</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3577349237379752</v>
+        <v>0.3679106000158744</v>
       </c>
     </row>
     <row r="27">
@@ -7183,19 +7183,19 @@
         <v>51465</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>39511</v>
+        <v>40044</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>65799</v>
+        <v>66471</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2666261970129794</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2046952731090411</v>
+        <v>0.2074604581043648</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3408880854476232</v>
+        <v>0.3443707497177989</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>32</v>
@@ -7204,19 +7204,19 @@
         <v>34183</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>23147</v>
+        <v>24075</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>45707</v>
+        <v>46720</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1738501194770959</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1177254242216228</v>
+        <v>0.1224414638792308</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2324608532988924</v>
+        <v>0.2376122106672689</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>78</v>
@@ -7225,19 +7225,19 @@
         <v>85647</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>70709</v>
+        <v>68546</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>103171</v>
+        <v>103575</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.219809525958316</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1814724037879067</v>
+        <v>0.1759194359490884</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2647836371747175</v>
+        <v>0.2658201879135981</v>
       </c>
     </row>
     <row r="28">
@@ -7329,19 +7329,19 @@
         <v>438237</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>404402</v>
+        <v>406319</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>474049</v>
+        <v>477584</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3117292066669236</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2876615681177291</v>
+        <v>0.2890255797223305</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3372037687852541</v>
+        <v>0.339718290243312</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>382</v>
@@ -7350,19 +7350,19 @@
         <v>392033</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>360348</v>
+        <v>355985</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>423695</v>
+        <v>420875</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3809555305077584</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3501655568677934</v>
+        <v>0.3459260015702308</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4117224766208438</v>
+        <v>0.4089822496086605</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>789</v>
@@ -7371,19 +7371,19 @@
         <v>830270</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>783362</v>
+        <v>783064</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>878930</v>
+        <v>881687</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.340986751275053</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3217222535745213</v>
+        <v>0.3215994715925409</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3609711099797877</v>
+        <v>0.3621036929197923</v>
       </c>
     </row>
     <row r="30">
@@ -7400,19 +7400,19 @@
         <v>457737</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>426302</v>
+        <v>420434</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>494569</v>
+        <v>494490</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3256000912173072</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3032393905631542</v>
+        <v>0.2990654812486779</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3517995463493412</v>
+        <v>0.3517437546097935</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>313</v>
@@ -7421,19 +7421,19 @@
         <v>316017</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>287936</v>
+        <v>285898</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>344720</v>
+        <v>345666</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3070870870387445</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2798003668910467</v>
+        <v>0.2778197986094609</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.334979936233071</v>
+        <v>0.3358991572987646</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>737</v>
@@ -7442,19 +7442,19 @@
         <v>773753</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>727884</v>
+        <v>723884</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>820511</v>
+        <v>819758</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3177758270424518</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.298937730130503</v>
+        <v>0.2972947395534028</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3369788179760589</v>
+        <v>0.3366695609171007</v>
       </c>
     </row>
     <row r="31">
@@ -7471,19 +7471,19 @@
         <v>321040</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>289702</v>
+        <v>289045</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>354025</v>
+        <v>352471</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2283644042935244</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2060725960026524</v>
+        <v>0.2056049225140353</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2518270757295383</v>
+        <v>0.2507218573689393</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>206</v>
@@ -7492,19 +7492,19 @@
         <v>210542</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>184569</v>
+        <v>184750</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>236069</v>
+        <v>236348</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2045928369117282</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1793539994820764</v>
+        <v>0.1795299077297612</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2293987804677271</v>
+        <v>0.2296696331162603</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>510</v>
@@ -7513,19 +7513,19 @@
         <v>531582</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>487835</v>
+        <v>492845</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>571910</v>
+        <v>573406</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2183176813926068</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2003507681987846</v>
+        <v>0.2024086515699719</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2348800537700232</v>
+        <v>0.2354944651520876</v>
       </c>
     </row>
     <row r="32">
@@ -7542,19 +7542,19 @@
         <v>188811</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>162904</v>
+        <v>162027</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>216353</v>
+        <v>217236</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1343062978222448</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1158780830616908</v>
+        <v>0.1152537481498158</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1538978150433204</v>
+        <v>0.1545258442915541</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>104</v>
@@ -7563,19 +7563,19 @@
         <v>110486</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>90694</v>
+        <v>90135</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>132243</v>
+        <v>131299</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1073645455417687</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.08813089483564274</v>
+        <v>0.08758826433606152</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1285062713789136</v>
+        <v>0.1275891348758064</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>276</v>
@@ -7584,19 +7584,19 @@
         <v>299298</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>268447</v>
+        <v>267774</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>333364</v>
+        <v>335477</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1229197402898884</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.110249742234356</v>
+        <v>0.1099731569844047</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1369106825322842</v>
+        <v>0.1377782094259642</v>
       </c>
     </row>
     <row r="33">
@@ -7929,19 +7929,19 @@
         <v>118008</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>104188</v>
+        <v>102639</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>133403</v>
+        <v>133942</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.60399435266068</v>
+        <v>0.6039943526606799</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5332559686969786</v>
+        <v>0.5253313858824979</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6827896162834139</v>
+        <v>0.6855461733715035</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>103</v>
@@ -7950,19 +7950,19 @@
         <v>77440</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>66246</v>
+        <v>66551</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>89982</v>
+        <v>88036</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4843129419792403</v>
+        <v>0.4843129419792402</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4143013421087757</v>
+        <v>0.4162120812487003</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5627478342424344</v>
+        <v>0.550577860975912</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>202</v>
@@ -7971,19 +7971,19 @@
         <v>195449</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>176732</v>
+        <v>175473</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>216142</v>
+        <v>214372</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5501301554201883</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4974492886155291</v>
+        <v>0.4939047480710797</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6083756815324826</v>
+        <v>0.6033950365421344</v>
       </c>
     </row>
     <row r="5">
@@ -8000,19 +8000,19 @@
         <v>53570</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>40334</v>
+        <v>40752</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>66784</v>
+        <v>69111</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2741838039133373</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2064401774599074</v>
+        <v>0.2085765001923938</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3418174560564598</v>
+        <v>0.3537285459484653</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>76</v>
@@ -8021,19 +8021,19 @@
         <v>53752</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>42890</v>
+        <v>42916</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>64299</v>
+        <v>64398</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3361661108297131</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2682349470462493</v>
+        <v>0.2683998421731608</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4021293070385077</v>
+        <v>0.4027449515130062</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>125</v>
@@ -8042,19 +8042,19 @@
         <v>107322</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>91013</v>
+        <v>88327</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>125416</v>
+        <v>124457</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.3020797585662357</v>
+        <v>0.3020797585662356</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2561748743012625</v>
+        <v>0.2486148460996367</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3530076970848475</v>
+        <v>0.3503101071230427</v>
       </c>
     </row>
     <row r="6">
@@ -8071,19 +8071,19 @@
         <v>14231</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7363</v>
+        <v>8190</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>24820</v>
+        <v>25749</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07283658756445451</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03768640139387351</v>
+        <v>0.04192060279046141</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1270360345689509</v>
+        <v>0.1317918370697789</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>25</v>
@@ -8092,19 +8092,19 @@
         <v>20071</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13271</v>
+        <v>13048</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>28620</v>
+        <v>28358</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1255263219579351</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08299945173961884</v>
+        <v>0.08160491402910276</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1789871774708911</v>
+        <v>0.1773532858081038</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>37</v>
@@ -8113,19 +8113,19 @@
         <v>34302</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>23814</v>
+        <v>24511</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>47192</v>
+        <v>48268</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.09655029740259971</v>
+        <v>0.0965502974025997</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06702978941709734</v>
+        <v>0.06899000030692863</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1328304270397176</v>
+        <v>0.135859961543277</v>
       </c>
     </row>
     <row r="7">
@@ -8142,19 +8142,19 @@
         <v>9571</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3459</v>
+        <v>3715</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19813</v>
+        <v>21030</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04898525586152823</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0177040931000196</v>
+        <v>0.01901488245632476</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.101408866863072</v>
+        <v>0.1076351315881741</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -8163,19 +8163,19 @@
         <v>8634</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4608</v>
+        <v>4831</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14035</v>
+        <v>14351</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05399462523311153</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02881795932128409</v>
+        <v>0.03021384955521477</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08777624501159996</v>
+        <v>0.0897496043764371</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>19</v>
@@ -8184,19 +8184,19 @@
         <v>18204</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10513</v>
+        <v>11068</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>29151</v>
+        <v>31258</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.05123978861097622</v>
+        <v>0.0512397886109762</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02959137207587996</v>
+        <v>0.03115255875271138</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08205055160179847</v>
+        <v>0.08798285967158348</v>
       </c>
     </row>
     <row r="8">
@@ -8288,19 +8288,19 @@
         <v>96341</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>83139</v>
+        <v>81960</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>110741</v>
+        <v>109238</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5833800476990504</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5034420413232675</v>
+        <v>0.4963000896781341</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6705818549994816</v>
+        <v>0.6614774466990241</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>96</v>
@@ -8309,19 +8309,19 @@
         <v>71685</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>59332</v>
+        <v>62525</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>80843</v>
+        <v>81462</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5772683904617373</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4777905551409047</v>
+        <v>0.5035065476764586</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6510172938426606</v>
+        <v>0.6560063129320558</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>176</v>
@@ -8330,19 +8330,19 @@
         <v>168025</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>149829</v>
+        <v>150661</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>184662</v>
+        <v>183971</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.5807568783817135</v>
+        <v>0.5807568783817136</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5178644903027854</v>
+        <v>0.5207402020304689</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6382615058913199</v>
+        <v>0.6358729091802866</v>
       </c>
     </row>
     <row r="10">
@@ -8359,19 +8359,19 @@
         <v>49247</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>36543</v>
+        <v>37891</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>63139</v>
+        <v>63620</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2982103737545809</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2212828699838156</v>
+        <v>0.229442323134449</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3823295617748678</v>
+        <v>0.3852442778492767</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>50</v>
@@ -8380,19 +8380,19 @@
         <v>35825</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27675</v>
+        <v>27476</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46161</v>
+        <v>45139</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.28849330709117</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.222865890051053</v>
+        <v>0.2212624887047736</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3717309199312862</v>
+        <v>0.3635033588094516</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>95</v>
@@ -8401,19 +8401,19 @@
         <v>85072</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>69434</v>
+        <v>70239</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>100349</v>
+        <v>100913</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2940397355567519</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2399899386287705</v>
+        <v>0.2427718392610623</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3468418926757119</v>
+        <v>0.3487917553417672</v>
       </c>
     </row>
     <row r="11">
@@ -8430,19 +8430,19 @@
         <v>9922</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4923</v>
+        <v>5004</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17917</v>
+        <v>18762</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06008304607092374</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0298086550604716</v>
+        <v>0.0303039093926849</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1084960061153405</v>
+        <v>0.1136109852514459</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>10</v>
@@ -8451,19 +8451,19 @@
         <v>8533</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4400</v>
+        <v>4355</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>15687</v>
+        <v>15019</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.06871287802926405</v>
+        <v>0.06871287802926407</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0354310895126992</v>
+        <v>0.03506868477713882</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1263272966911419</v>
+        <v>0.1209431544172701</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>19</v>
@@ -8472,19 +8472,19 @@
         <v>18455</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>10688</v>
+        <v>11317</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>28704</v>
+        <v>28224</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.06378703494462627</v>
+        <v>0.06378703494462629</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03694209000083822</v>
+        <v>0.03911446131739649</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09921088491884772</v>
+        <v>0.09755197443551572</v>
       </c>
     </row>
     <row r="12">
@@ -8501,19 +8501,19 @@
         <v>9632</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4023</v>
+        <v>4510</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>19593</v>
+        <v>19216</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05832653247544493</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02436348545940734</v>
+        <v>0.02730968885863479</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1186405764563105</v>
+        <v>0.1163612450658636</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -8522,19 +8522,19 @@
         <v>8137</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3597</v>
+        <v>3578</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16462</v>
+        <v>16969</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.0655254244178287</v>
+        <v>0.06552542441782867</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02896908881761672</v>
+        <v>0.02881389054306004</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1325689056973138</v>
+        <v>0.1366520443519779</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>15</v>
@@ -8543,19 +8543,19 @@
         <v>17769</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>10536</v>
+        <v>10119</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>30988</v>
+        <v>30385</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.06141635111690832</v>
+        <v>0.0614163511169083</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03641637238992272</v>
+        <v>0.03497641010926974</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1071068624419818</v>
+        <v>0.105021783481769</v>
       </c>
     </row>
     <row r="13">
@@ -8647,19 +8647,19 @@
         <v>19765</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11266</v>
+        <v>12293</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>30067</v>
+        <v>29279</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1413457771186689</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08057034602078071</v>
+        <v>0.08791515177154871</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2150212647458772</v>
+        <v>0.2093896123257115</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>13</v>
@@ -8668,19 +8668,19 @@
         <v>11767</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6404</v>
+        <v>6601</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19756</v>
+        <v>18606</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2416226313215235</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1314949356248969</v>
+        <v>0.1355402593883412</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4056643694907655</v>
+        <v>0.3820605991073542</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>30</v>
@@ -8689,19 +8689,19 @@
         <v>31532</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>21037</v>
+        <v>22347</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>44255</v>
+        <v>45464</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1672482932727114</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.111582805068503</v>
+        <v>0.1185305386213983</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2347327199469479</v>
+        <v>0.2411449330455171</v>
       </c>
     </row>
     <row r="15">
@@ -8718,19 +8718,19 @@
         <v>52350</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>39483</v>
+        <v>40167</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>65227</v>
+        <v>65065</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3743753571574269</v>
+        <v>0.3743753571574268</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2823604765287648</v>
+        <v>0.2872539309473873</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4664665199730254</v>
+        <v>0.4653049001122609</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>30</v>
@@ -8739,19 +8739,19 @@
         <v>21060</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>14665</v>
+        <v>15415</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>27129</v>
+        <v>27492</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.4324527131353446</v>
+        <v>0.4324527131353447</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3011296979432436</v>
+        <v>0.316528771360584</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.5570703232101102</v>
+        <v>0.564523288839057</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>78</v>
@@ -8760,19 +8760,19 @@
         <v>73410</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>59397</v>
+        <v>60229</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>87953</v>
+        <v>88631</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3893773201065125</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3150519253690776</v>
+        <v>0.3194655432761702</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4665148849459281</v>
+        <v>0.4701092375789994</v>
       </c>
     </row>
     <row r="16">
@@ -8789,19 +8789,19 @@
         <v>43718</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>32634</v>
+        <v>33048</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>57081</v>
+        <v>56988</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3126469103577021</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2333775806315578</v>
+        <v>0.2363425371091417</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4082106139989536</v>
+        <v>0.407547207456764</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -8810,19 +8810,19 @@
         <v>12461</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7596</v>
+        <v>7696</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18555</v>
+        <v>18532</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2558634951964611</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1559820770452681</v>
+        <v>0.1580218248776051</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.381001339521742</v>
+        <v>0.3805243641298572</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>55</v>
@@ -8831,19 +8831,19 @@
         <v>56179</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>44585</v>
+        <v>43071</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>70626</v>
+        <v>70670</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2979791852860686</v>
+        <v>0.2979791852860685</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2364829159317179</v>
+        <v>0.2284557140018244</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3746116234308141</v>
+        <v>0.3748432280194383</v>
       </c>
     </row>
     <row r="17">
@@ -8860,19 +8860,19 @@
         <v>24000</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13999</v>
+        <v>14379</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>37049</v>
+        <v>37178</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1716319553662022</v>
+        <v>0.1716319553662021</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1001115276762102</v>
+        <v>0.1028287326346317</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2649523129427648</v>
+        <v>0.2658789515392104</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -8881,19 +8881,19 @@
         <v>3412</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7624</v>
+        <v>7218</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07006116034667077</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02508881783461746</v>
+        <v>0.02515905373522753</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1565509915117681</v>
+        <v>0.1482190317049929</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>22</v>
@@ -8902,19 +8902,19 @@
         <v>27412</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>17214</v>
+        <v>17337</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>41178</v>
+        <v>40285</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1453952013347073</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09130536819517583</v>
+        <v>0.09195651478177731</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2184150585114466</v>
+        <v>0.2136754789089979</v>
       </c>
     </row>
     <row r="18">
@@ -9006,19 +9006,19 @@
         <v>44253</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>30748</v>
+        <v>31280</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>60539</v>
+        <v>58389</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1529026582947415</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1062414549560095</v>
+        <v>0.108078849195439</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2091757464228131</v>
+        <v>0.2017462752785284</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>55</v>
@@ -9027,19 +9027,19 @@
         <v>47828</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>37154</v>
+        <v>37241</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>60193</v>
+        <v>59804</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2179973015283812</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1693477665920368</v>
+        <v>0.169743725864815</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2743575129269902</v>
+        <v>0.2725856255757756</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>90</v>
@@ -9048,19 +9048,19 @@
         <v>92080</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>74586</v>
+        <v>73839</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>112270</v>
+        <v>112253</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1809707173265856</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1465880470282908</v>
+        <v>0.1451196413901342</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2206498261778992</v>
+        <v>0.2206178957315034</v>
       </c>
     </row>
     <row r="20">
@@ -9077,19 +9077,19 @@
         <v>118718</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>100188</v>
+        <v>99619</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>136724</v>
+        <v>136106</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4101928344568845</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3461677363734634</v>
+        <v>0.3442046810799939</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4724084587246838</v>
+        <v>0.4702721764157136</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>123</v>
@@ -9098,19 +9098,19 @@
         <v>92191</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>80181</v>
+        <v>79328</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>104837</v>
+        <v>105127</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4202033630285664</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3654627863168285</v>
+        <v>0.3615742913062081</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4778441928942768</v>
+        <v>0.4791667827530419</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>230</v>
@@ -9119,19 +9119,19 @@
         <v>210908</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>187301</v>
+        <v>188839</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>234183</v>
+        <v>235464</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.4145092588649796</v>
+        <v>0.4145092588649797</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3681129267044009</v>
+        <v>0.3711357630194498</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4602522228296691</v>
+        <v>0.4627708581933987</v>
       </c>
     </row>
     <row r="21">
@@ -9148,19 +9148,19 @@
         <v>86025</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>69732</v>
+        <v>68939</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>104433</v>
+        <v>107217</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2972349846513401</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2409386360109253</v>
+        <v>0.2381981652282198</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.360837054113219</v>
+        <v>0.370457218666945</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>68</v>
@@ -9169,19 +9169,19 @@
         <v>54938</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>44081</v>
+        <v>44932</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>65884</v>
+        <v>67033</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2504051682417803</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2009202212513712</v>
+        <v>0.2047996672041056</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3003006113172575</v>
+        <v>0.3055359791387489</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>143</v>
@@ -9190,19 +9190,19 @@
         <v>140963</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>121073</v>
+        <v>121499</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>162564</v>
+        <v>164126</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2770425081872449</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2379517332052462</v>
+        <v>0.2387884907281488</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3194964770120687</v>
+        <v>0.3225655705437729</v>
       </c>
     </row>
     <row r="22">
@@ -9219,19 +9219,19 @@
         <v>40423</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>27162</v>
+        <v>28544</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>55967</v>
+        <v>56785</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1396695225970339</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09385055156493567</v>
+        <v>0.09862476199367823</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1933776804494865</v>
+        <v>0.1962021521728906</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>32</v>
@@ -9240,19 +9240,19 @@
         <v>24439</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>16051</v>
+        <v>17824</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>32654</v>
+        <v>34140</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.111394167201272</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07316237449304895</v>
+        <v>0.08124191516453674</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1488348346783152</v>
+        <v>0.1556075221209639</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>62</v>
@@ -9261,19 +9261,19 @@
         <v>64862</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>49383</v>
+        <v>49954</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>82293</v>
+        <v>82646</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1274775156211898</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09705575292147794</v>
+        <v>0.09817664153605313</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1617345627974771</v>
+        <v>0.1624292969004092</v>
       </c>
     </row>
     <row r="23">
@@ -9365,19 +9365,19 @@
         <v>20272</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12231</v>
+        <v>12349</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>30828</v>
+        <v>31910</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1201307060615034</v>
+        <v>0.1201307060615035</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07248005905129715</v>
+        <v>0.07317910188199039</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1826830986432933</v>
+        <v>0.1890963201206393</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>23</v>
@@ -9386,19 +9386,19 @@
         <v>17416</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>11202</v>
+        <v>11584</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>24617</v>
+        <v>25632</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1156188256658982</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0743653265897834</v>
+        <v>0.07690003558006976</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1634215726701597</v>
+        <v>0.1701557531389627</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>40</v>
@@ -9407,19 +9407,19 @@
         <v>37689</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>27394</v>
+        <v>26886</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>50869</v>
+        <v>51227</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1180026979371395</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08577125735969132</v>
+        <v>0.08417976979975628</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1592713724409793</v>
+        <v>0.1603915824165695</v>
       </c>
     </row>
     <row r="25">
@@ -9436,19 +9436,19 @@
         <v>32011</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>21391</v>
+        <v>22068</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>44720</v>
+        <v>45556</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1896929099989317</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1267612719700332</v>
+        <v>0.1307739838311665</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2650066657797678</v>
+        <v>0.2699613933188706</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>64</v>
@@ -9457,19 +9457,19 @@
         <v>42704</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>33345</v>
+        <v>33782</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>52850</v>
+        <v>52863</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2834873803110211</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2213589981927827</v>
+        <v>0.2242611392264301</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3508410103848601</v>
+        <v>0.3509325296591795</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>93</v>
@@ -9478,19 +9478,19 @@
         <v>74714</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>60494</v>
+        <v>61013</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>90430</v>
+        <v>91066</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2339306506622165</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1894080365798685</v>
+        <v>0.1910321909958078</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2831370292938665</v>
+        <v>0.285128063903299</v>
       </c>
     </row>
     <row r="26">
@@ -9507,19 +9507,19 @@
         <v>59889</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>45629</v>
+        <v>46730</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>75471</v>
+        <v>75177</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3548969867264462</v>
+        <v>0.3548969867264463</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2703957388776406</v>
+        <v>0.2769191167162069</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4472334111561844</v>
+        <v>0.4454919095302604</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>78</v>
@@ -9528,19 +9528,19 @@
         <v>56241</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>45936</v>
+        <v>46477</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>67429</v>
+        <v>67262</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3733519299343371</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3049424144123152</v>
+        <v>0.308537946173733</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4476227716148067</v>
+        <v>0.4465176733521774</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>126</v>
@@ -9549,19 +9549,19 @@
         <v>116129</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>98007</v>
+        <v>97074</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>135014</v>
+        <v>134046</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.3636011778037009</v>
+        <v>0.363601177803701</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.30685826653309</v>
+        <v>0.3039369283707655</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4227279437121373</v>
+        <v>0.4196980845818247</v>
       </c>
     </row>
     <row r="27">
@@ -9578,19 +9578,19 @@
         <v>56578</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>42523</v>
+        <v>41894</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>73007</v>
+        <v>71422</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3352793972131186</v>
+        <v>0.3352793972131187</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.251989484843394</v>
+        <v>0.2482606181893695</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.432634202128612</v>
+        <v>0.4232386847944714</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>41</v>
@@ -9599,19 +9599,19 @@
         <v>34276</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>25377</v>
+        <v>25627</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>44473</v>
+        <v>44665</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2275418640887435</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1684651114758776</v>
+        <v>0.1701270247751039</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2952339144895867</v>
+        <v>0.2965046802037689</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>80</v>
@@ -9620,19 +9620,19 @@
         <v>90855</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>73746</v>
+        <v>72300</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>113111</v>
+        <v>109703</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2844654735969429</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2308976753386112</v>
+        <v>0.2263716305806467</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3541514938476776</v>
+        <v>0.3434806429443194</v>
       </c>
     </row>
     <row r="28">
@@ -9724,19 +9724,19 @@
         <v>298639</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>264798</v>
+        <v>266841</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>331912</v>
+        <v>332880</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.3115612950099689</v>
+        <v>0.311561295009969</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2762564943893492</v>
+        <v>0.2783877167249044</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3462745858298858</v>
+        <v>0.3472841029851503</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>290</v>
@@ -9745,19 +9745,19 @@
         <v>226136</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>204169</v>
+        <v>204369</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>249276</v>
+        <v>250604</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3217603241133155</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.290504825033534</v>
+        <v>0.2907897793584186</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3546863499156775</v>
+        <v>0.3565746640536511</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>538</v>
@@ -9766,19 +9766,19 @@
         <v>524774</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>485058</v>
+        <v>489071</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>564612</v>
+        <v>563382</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3158758815352165</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2919694534613678</v>
+        <v>0.2943847889937982</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3398554981939031</v>
+        <v>0.3391146921094961</v>
       </c>
     </row>
     <row r="30">
@@ -9795,19 +9795,19 @@
         <v>305895</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>274031</v>
+        <v>274766</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>340607</v>
+        <v>337757</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3191317338607647</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2858887654939366</v>
+        <v>0.2866560861083964</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3553455763153749</v>
+        <v>0.3523724227232735</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>343</v>
@@ -9816,19 +9816,19 @@
         <v>245531</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>223845</v>
+        <v>222755</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>270027</v>
+        <v>267134</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3493576524747774</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3185010072019373</v>
+        <v>0.3169506442504719</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.384212005884002</v>
+        <v>0.3800952923456551</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>621</v>
@@ -9837,19 +9837,19 @@
         <v>551426</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>513859</v>
+        <v>514565</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>589874</v>
+        <v>594190</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3319184746224372</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3093055829054278</v>
+        <v>0.309730840057112</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3550611908623992</v>
+        <v>0.3576589689292251</v>
       </c>
     </row>
     <row r="31">
@@ -9866,19 +9866,19 @@
         <v>213785</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>187638</v>
+        <v>187126</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>245009</v>
+        <v>242197</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2230362388054801</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1957577361087666</v>
+        <v>0.1952228666504972</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.255611266637342</v>
+        <v>0.2526775097949468</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>198</v>
@@ -9887,19 +9887,19 @@
         <v>152243</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>132393</v>
+        <v>134659</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>173453</v>
+        <v>172973</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2166208466469901</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1883766950776358</v>
+        <v>0.1916015849848002</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2468001842293496</v>
+        <v>0.2461169636567397</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>380</v>
@@ -9908,19 +9908,19 @@
         <v>366028</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>334383</v>
+        <v>332172</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>406052</v>
+        <v>400880</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.2203222780665979</v>
+        <v>0.220322278066598</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2012740879693736</v>
+        <v>0.1999431988973126</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2444137894718291</v>
+        <v>0.2413007451628569</v>
       </c>
     </row>
     <row r="32">
@@ -9937,19 +9937,19 @@
         <v>140204</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>113711</v>
+        <v>114505</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>169141</v>
+        <v>168725</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1462707323237862</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1186317748152668</v>
+        <v>0.1194602052023481</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1764599456319703</v>
+        <v>0.1760261558336654</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>98</v>
@@ -9958,19 +9958,19 @@
         <v>78898</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>64363</v>
+        <v>65242</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>94750</v>
+        <v>97249</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.112261176764917</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.09158035878548512</v>
+        <v>0.09283049333198394</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1348157456726775</v>
+        <v>0.1383723384617488</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>198</v>
@@ -9979,19 +9979,19 @@
         <v>219102</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>189928</v>
+        <v>188107</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>254321</v>
+        <v>253918</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1318833657757485</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1143228018266904</v>
+        <v>0.1132264382997502</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1530827498275979</v>
+        <v>0.152839908917108</v>
       </c>
     </row>
     <row r="33">
